--- a/1.xlsx
+++ b/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>город</t>
   </si>
@@ -377,16 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,35 +398,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>34222222222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>49555555555</v>
+        <v>34222222222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>49777777777</v>
+        <v>49555555555</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>49777777777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>272222222222</v>
+      <c r="B6">
+        <v>2722222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2722222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>34222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>49555555555</v>
       </c>
     </row>
   </sheetData>
